--- a/data/its2/its2-samples.xlsx
+++ b/data/its2/its2-samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoedellaert/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/its2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5396315-5565-C14F-8E6E-283D9FE35560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809BFC4D-8405-8544-86EB-1C3B8B1BA524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" activeTab="1" xr2:uid="{D0675D97-F897-924F-96CD-E0B737DBEC4C}"/>
+    <workbookView xWindow="-36040" yWindow="-560" windowWidth="29400" windowHeight="16760" activeTab="1" xr2:uid="{D0675D97-F897-924F-96CD-E0B737DBEC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="its2-samples" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,7 +1641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,7 +1706,34 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2081,8 +2114,8 @@
   </sheetPr>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J194" sqref="A1:K199"/>
+    <sheetView topLeftCell="A164" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I169" sqref="H134:I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2094,41 +2127,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2163,7 +2196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2229,9 +2262,8 @@
       <c r="J4" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2262,9 +2294,8 @@
       <c r="J5" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2295,9 +2326,8 @@
       <c r="J6" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2328,207 +2358,200 @@
       <c r="J7" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>45</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>38</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K8" s="22"/>
+      <c r="J8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9">
         <v>47</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
         <v>38</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="22">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K9" s="22"/>
+      <c r="J9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>48</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
         <v>38</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="22"/>
+      <c r="J10" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>56</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
         <v>38</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K11" s="22"/>
+      <c r="J11" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>57</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="22">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
         <v>38</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K12" s="22"/>
+      <c r="J12" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13">
         <v>54</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
         <v>38</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2559,9 +2582,8 @@
       <c r="J14" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2592,9 +2614,8 @@
       <c r="J15" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2625,9 +2646,8 @@
       <c r="J16" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2658,9 +2678,8 @@
       <c r="J17" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2691,9 +2710,8 @@
       <c r="J18" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2724,405 +2742,392 @@
       <c r="J19" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>46</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
         <v>38</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="J20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21">
         <v>49</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
         <v>38</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="22">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="J21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22">
         <v>50</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
         <v>38</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="22" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="J22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23">
         <v>52</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
         <v>38</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="22">
-        <v>1</v>
-      </c>
-      <c r="I23" s="22" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>126</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="J23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24">
         <v>53</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
         <v>38</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="22">
-        <v>1</v>
-      </c>
-      <c r="I24" s="22" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
         <v>128</v>
       </c>
-      <c r="J24" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="J24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
         <v>38</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="22">
-        <v>1</v>
-      </c>
-      <c r="I25" s="22" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="J25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>55</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26">
         <v>38</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="22">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="J26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>58</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="22">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27">
         <v>38</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="22">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="J27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>60</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="22">
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
         <v>38</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="J28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29">
         <v>61</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="22">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29">
         <v>38</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>138</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="J29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30">
         <v>62</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="22">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30">
         <v>38</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="22">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="J30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31">
         <v>63</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="22">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31">
         <v>38</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="22">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -3153,9 +3158,8 @@
       <c r="J32" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -3186,9 +3190,8 @@
       <c r="J33" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -3219,9 +3222,8 @@
       <c r="J34" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -3252,9 +3254,8 @@
       <c r="J35" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -3285,9 +3286,8 @@
       <c r="J36" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -3318,9 +3318,8 @@
       <c r="J37" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -3351,9 +3350,8 @@
       <c r="J38" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -3384,9 +3382,8 @@
       <c r="J39" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -3417,9 +3414,8 @@
       <c r="J40" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -3450,9 +3446,8 @@
       <c r="J41" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -3483,9 +3478,8 @@
       <c r="J42" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -3516,9 +3510,8 @@
       <c r="J43" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -3549,702 +3542,680 @@
       <c r="J44" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="22">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45">
         <v>194</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="22">
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45">
         <v>39</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="22">
-        <v>1</v>
-      </c>
-      <c r="I45" s="22" t="s">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
         <v>323</v>
       </c>
-      <c r="J45" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="22">
+      <c r="J45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46">
         <v>195</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="22">
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46">
         <v>39</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="22">
-        <v>1</v>
-      </c>
-      <c r="I46" s="22" t="s">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>324</v>
       </c>
-      <c r="J46" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="22">
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47">
         <v>196</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="22">
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47">
         <v>39</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" t="s">
         <v>106</v>
       </c>
-      <c r="H47" s="22">
-        <v>1</v>
-      </c>
-      <c r="I47" s="22" t="s">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>255</v>
       </c>
-      <c r="J47" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48">
         <v>197</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="22">
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48">
         <v>39</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" t="s">
         <v>108</v>
       </c>
-      <c r="H48" s="22">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22" t="s">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
         <v>257</v>
       </c>
-      <c r="J48" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="22">
+      <c r="J48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49">
         <v>198</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="22">
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49">
         <v>39</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="22">
-        <v>1</v>
-      </c>
-      <c r="I49" s="22" t="s">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="22">
+      <c r="J49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50">
         <v>199</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="22">
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50">
         <v>39</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="22">
-        <v>1</v>
-      </c>
-      <c r="I50" s="22" t="s">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="22">
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51">
         <v>200</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="22">
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51">
         <v>39</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="22">
-        <v>1</v>
-      </c>
-      <c r="I51" s="22" t="s">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K51" s="22"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
+      <c r="J51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52">
         <v>201</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="22">
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52">
         <v>39</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" t="s">
         <v>116</v>
       </c>
-      <c r="H52" s="22">
-        <v>1</v>
-      </c>
-      <c r="I52" s="22" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="22">
+      <c r="J52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53">
         <v>202</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="22">
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53">
         <v>39</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="22">
-        <v>1</v>
-      </c>
-      <c r="I53" s="22" t="s">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="22">
+      <c r="J53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54">
         <v>203</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="22">
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54">
         <v>39</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="22">
-        <v>1</v>
-      </c>
-      <c r="I54" s="22" t="s">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>25</v>
       </c>
-      <c r="J54" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K54" s="22"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="22">
+      <c r="J54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55">
         <v>204</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="22">
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55">
         <v>39</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="22">
-        <v>1</v>
-      </c>
-      <c r="I55" s="22" t="s">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K55" s="22"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
+      <c r="J55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56">
         <v>205</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="22">
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56">
         <v>39</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="22">
-        <v>1</v>
-      </c>
-      <c r="I56" s="22" t="s">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>30</v>
       </c>
-      <c r="J56" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="22">
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57">
         <v>206</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="22">
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57">
         <v>39</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="22">
-        <v>1</v>
-      </c>
-      <c r="I57" s="22" t="s">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K57" s="22"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
+      <c r="J57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58">
         <v>207</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="22">
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58">
         <v>39</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="22">
-        <v>1</v>
-      </c>
-      <c r="I58" s="22" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="22">
+      <c r="J58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59">
         <v>208</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="22">
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59">
         <v>39</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="22">
-        <v>1</v>
-      </c>
-      <c r="I59" s="22" t="s">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>36</v>
       </c>
-      <c r="J59" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
+      <c r="J59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60">
         <v>209</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="22">
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60">
         <v>39</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="22">
-        <v>1</v>
-      </c>
-      <c r="I60" s="22" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="22">
+      <c r="J60" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61">
         <v>210</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="22">
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61">
         <v>39</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" t="s">
         <v>134</v>
       </c>
-      <c r="H61" s="22">
-        <v>1</v>
-      </c>
-      <c r="I61" s="22" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>172</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="22">
+      <c r="J61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62">
         <v>211</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="22">
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62">
         <v>39</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" t="s">
         <v>136</v>
       </c>
-      <c r="H62" s="22">
-        <v>1</v>
-      </c>
-      <c r="I62" s="22" t="s">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>174</v>
       </c>
-      <c r="J62" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K62" s="22"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="22">
+      <c r="J62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63">
         <v>212</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="22">
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63">
         <v>39</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" t="s">
         <v>138</v>
       </c>
-      <c r="H63" s="22">
-        <v>1</v>
-      </c>
-      <c r="I63" s="22" t="s">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>176</v>
       </c>
-      <c r="J63" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K63" s="22"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
+      <c r="J63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64">
         <v>213</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="22">
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64">
         <v>39</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" t="s">
         <v>140</v>
       </c>
-      <c r="H64" s="22">
-        <v>1</v>
-      </c>
-      <c r="I64" s="22" t="s">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>178</v>
       </c>
-      <c r="J64" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K64" s="22"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="22">
+      <c r="J64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65">
         <v>214</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="22">
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65">
         <v>39</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" t="s">
         <v>142</v>
       </c>
-      <c r="H65" s="22">
-        <v>1</v>
-      </c>
-      <c r="I65" s="22" t="s">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>180</v>
       </c>
-      <c r="J65" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K65" s="22"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>65</v>
       </c>
@@ -4275,9 +4246,8 @@
       <c r="J66" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K66" s="22"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>66</v>
       </c>
@@ -4308,9 +4278,8 @@
       <c r="J67" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K67" s="22"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>67</v>
       </c>
@@ -4341,9 +4310,8 @@
       <c r="J68" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K68" s="22"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>68</v>
       </c>
@@ -4374,9 +4342,8 @@
       <c r="J69" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K69" s="22"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>69</v>
       </c>
@@ -4407,9 +4374,8 @@
       <c r="J70" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K70" s="22"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>70</v>
       </c>
@@ -4440,240 +4406,232 @@
       <c r="J71" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K71" s="22"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" t="s">
         <v>148</v>
       </c>
-      <c r="E72" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="22">
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72">
         <v>39</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="22">
-        <v>1</v>
-      </c>
-      <c r="I72" s="22" t="s">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>194</v>
       </c>
-      <c r="J72" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K72" s="22"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="22">
+      <c r="J72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73">
         <v>14</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="22">
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73">
         <v>39</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="22">
-        <v>1</v>
-      </c>
-      <c r="I73" s="22" t="s">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K73" s="22"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="22">
+      <c r="J73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74">
         <v>15</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="22">
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74">
         <v>39</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" t="s">
         <v>161</v>
       </c>
-      <c r="H74" s="22">
-        <v>1</v>
-      </c>
-      <c r="I74" s="22" t="s">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K74" s="22"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="22">
+      <c r="J74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75">
         <v>16</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="22">
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75">
         <v>39</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" t="s">
         <v>163</v>
       </c>
-      <c r="H75" s="22">
-        <v>1</v>
-      </c>
-      <c r="I75" s="22" t="s">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>200</v>
       </c>
-      <c r="J75" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K75" s="22"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="22">
+      <c r="J75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76">
         <v>20</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="22">
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76">
         <v>39</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" t="s">
         <v>165</v>
       </c>
-      <c r="H76" s="22">
-        <v>1</v>
-      </c>
-      <c r="I76" s="22" t="s">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>40</v>
       </c>
-      <c r="J76" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K76" s="22"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="22">
+      <c r="J76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77">
         <v>28</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" t="s">
         <v>148</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="22">
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77">
         <v>39</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="22">
-        <v>1</v>
-      </c>
-      <c r="I77" s="22" t="s">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
         <v>42</v>
       </c>
-      <c r="J77" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K77" s="22"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="22">
+      <c r="J77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78">
         <v>29</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="22">
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78">
         <v>39</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" t="s">
         <v>169</v>
       </c>
-      <c r="H78" s="22">
-        <v>1</v>
-      </c>
-      <c r="I78" s="22" t="s">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>44</v>
       </c>
-      <c r="J78" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K78" s="22"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>78</v>
       </c>
@@ -4704,9 +4662,8 @@
       <c r="J79" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K79" s="22"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>79</v>
       </c>
@@ -4737,9 +4694,8 @@
       <c r="J80" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K80" s="22"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>80</v>
       </c>
@@ -4770,9 +4726,8 @@
       <c r="J81" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K81" s="22"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>81</v>
       </c>
@@ -4803,9 +4758,8 @@
       <c r="J82" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K82" s="22"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>82</v>
       </c>
@@ -4836,9 +4790,8 @@
       <c r="J83" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K83" s="22"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>83</v>
       </c>
@@ -4869,9 +4822,8 @@
       <c r="J84" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K84" s="22"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>84</v>
       </c>
@@ -4902,9 +4854,8 @@
       <c r="J85" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K85" s="22"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="22">
         <v>85</v>
       </c>
@@ -4935,372 +4886,360 @@
       <c r="J86" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K86" s="22"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="22">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87">
         <v>17</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="22">
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87">
         <v>39</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" t="s">
         <v>186</v>
       </c>
-      <c r="H87" s="22">
-        <v>1</v>
-      </c>
-      <c r="I87" s="22" t="s">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>62</v>
       </c>
-      <c r="J87" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K87" s="22"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="22">
+      <c r="J87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88">
         <v>18</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="22">
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88">
         <v>39</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" t="s">
         <v>188</v>
       </c>
-      <c r="H88" s="22">
-        <v>1</v>
-      </c>
-      <c r="I88" s="22" t="s">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
         <v>64</v>
       </c>
-      <c r="J88" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K88" s="22"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="22">
+      <c r="J88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89">
         <v>19</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" t="s">
         <v>148</v>
       </c>
-      <c r="E89" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="22">
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89">
         <v>39</v>
       </c>
-      <c r="G89" s="22" t="s">
+      <c r="G89" t="s">
         <v>190</v>
       </c>
-      <c r="H89" s="22">
-        <v>1</v>
-      </c>
-      <c r="I89" s="22" t="s">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>66</v>
       </c>
-      <c r="J89" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K89" s="22"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="22">
+      <c r="J89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90">
         <v>21</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="22">
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90">
         <v>39</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" t="s">
         <v>192</v>
       </c>
-      <c r="H90" s="22">
-        <v>1</v>
-      </c>
-      <c r="I90" s="22" t="s">
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
         <v>68</v>
       </c>
-      <c r="J90" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K90" s="22"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="22">
+      <c r="J90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91">
         <v>24</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="22">
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91">
         <v>39</v>
       </c>
-      <c r="G91" s="22" t="s">
+      <c r="G91" t="s">
         <v>194</v>
       </c>
-      <c r="H91" s="22">
-        <v>1</v>
-      </c>
-      <c r="I91" s="22" t="s">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>70</v>
       </c>
-      <c r="J91" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K91" s="22"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="22">
+      <c r="J91" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92">
         <v>25</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="22">
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92">
         <v>39</v>
       </c>
-      <c r="G92" s="22" t="s">
+      <c r="G92" t="s">
         <v>196</v>
       </c>
-      <c r="H92" s="22">
-        <v>1</v>
-      </c>
-      <c r="I92" s="22" t="s">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
         <v>72</v>
       </c>
-      <c r="J92" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K92" s="22"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="22">
+      <c r="J92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93">
         <v>26</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="22">
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93">
         <v>39</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G93" t="s">
         <v>198</v>
       </c>
-      <c r="H93" s="22">
-        <v>1</v>
-      </c>
-      <c r="I93" s="22" t="s">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
         <v>74</v>
       </c>
-      <c r="J93" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K93" s="22"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="22">
+      <c r="J93" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="22">
-        <v>27</v>
-      </c>
-      <c r="D94" s="22" t="s">
+      <c r="C94">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
         <v>148</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="22">
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94">
         <v>39</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" t="s">
         <v>200</v>
       </c>
-      <c r="H94" s="22">
-        <v>1</v>
-      </c>
-      <c r="I94" s="22" t="s">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>76</v>
       </c>
-      <c r="J94" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K94" s="22"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="22">
+      <c r="J94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95">
         <v>30</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" t="s">
         <v>148</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="22">
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95">
         <v>39</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" t="s">
         <v>40</v>
       </c>
-      <c r="H95" s="22">
-        <v>1</v>
-      </c>
-      <c r="I95" s="22" t="s">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>78</v>
       </c>
-      <c r="J95" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K95" s="22"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="22">
+      <c r="J95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96">
         <v>31</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" t="s">
         <v>148</v>
       </c>
-      <c r="E96" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="22">
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96">
         <v>39</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G96" t="s">
         <v>42</v>
       </c>
-      <c r="H96" s="22">
-        <v>1</v>
-      </c>
-      <c r="I96" s="22" t="s">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>80</v>
       </c>
-      <c r="J96" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K96" s="22"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="22">
+      <c r="J96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97">
         <v>32</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" t="s">
         <v>148</v>
       </c>
-      <c r="E97" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="22">
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97">
         <v>39</v>
       </c>
-      <c r="G97" s="22" t="s">
+      <c r="G97" t="s">
         <v>44</v>
       </c>
-      <c r="H97" s="22">
-        <v>1</v>
-      </c>
-      <c r="I97" s="22" t="s">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>82</v>
       </c>
-      <c r="J97" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K97" s="22"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="22">
         <v>97</v>
       </c>
@@ -5331,9 +5270,8 @@
       <c r="J98" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K98" s="22"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="22">
         <v>98</v>
       </c>
@@ -5364,9 +5302,8 @@
       <c r="J99" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K99" s="22"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="22">
         <v>99</v>
       </c>
@@ -5397,9 +5334,8 @@
       <c r="J100" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K100" s="22"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="22">
         <v>100</v>
       </c>
@@ -5430,9 +5366,8 @@
       <c r="J101" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K101" s="22"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22">
         <v>101</v>
       </c>
@@ -5463,9 +5398,8 @@
       <c r="J102" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K102" s="22"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22">
         <v>102</v>
       </c>
@@ -5496,9 +5430,8 @@
       <c r="J103" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K103" s="22"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22">
         <v>103</v>
       </c>
@@ -5529,9 +5462,8 @@
       <c r="J104" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K104" s="22"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>104</v>
       </c>
@@ -5562,9 +5494,8 @@
       <c r="J105" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K105" s="22"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22">
         <v>105</v>
       </c>
@@ -5595,9 +5526,8 @@
       <c r="J106" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K106" s="22"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="22">
         <v>106</v>
       </c>
@@ -5628,9 +5558,8 @@
       <c r="J107" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K107" s="22"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="22">
         <v>107</v>
       </c>
@@ -5661,9 +5590,8 @@
       <c r="J108" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K108" s="22"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22">
         <v>108</v>
       </c>
@@ -5694,9 +5622,8 @@
       <c r="J109" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K109" s="22"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>109</v>
       </c>
@@ -5727,438 +5654,424 @@
       <c r="J110" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K110" s="22"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="22">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="22">
+      <c r="C111">
         <v>157</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="22">
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111">
         <v>39</v>
       </c>
-      <c r="G111" s="22" t="s">
+      <c r="G111" t="s">
         <v>72</v>
       </c>
-      <c r="H111" s="22">
-        <v>2</v>
-      </c>
-      <c r="I111" s="22" t="s">
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
         <v>110</v>
       </c>
-      <c r="J111" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K111" s="22"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="22">
+      <c r="J111" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" t="s">
         <v>218</v>
       </c>
-      <c r="C112" s="22">
+      <c r="C112">
         <v>158</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" t="s">
         <v>148</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="22">
+      <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112">
         <v>39</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" t="s">
         <v>74</v>
       </c>
-      <c r="H112" s="22">
-        <v>2</v>
-      </c>
-      <c r="I112" s="22" t="s">
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
         <v>112</v>
       </c>
-      <c r="J112" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K112" s="22"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="22">
+      <c r="J112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113">
         <v>159</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" t="s">
         <v>148</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" s="22">
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113">
         <v>39</v>
       </c>
-      <c r="G113" s="22" t="s">
+      <c r="G113" t="s">
         <v>76</v>
       </c>
-      <c r="H113" s="22">
-        <v>2</v>
-      </c>
-      <c r="I113" s="22" t="s">
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
         <v>114</v>
       </c>
-      <c r="J113" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K113" s="22"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="22">
+      <c r="J113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="22">
+      <c r="C114">
         <v>160</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" t="s">
         <v>148</v>
       </c>
-      <c r="E114" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="22">
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114">
         <v>39</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" t="s">
         <v>78</v>
       </c>
-      <c r="H114" s="22">
-        <v>2</v>
-      </c>
-      <c r="I114" s="22" t="s">
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
         <v>116</v>
       </c>
-      <c r="J114" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K114" s="22"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="22">
+      <c r="J114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" t="s">
         <v>221</v>
       </c>
-      <c r="C115" s="22">
+      <c r="C115">
         <v>161</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" t="s">
         <v>148</v>
       </c>
-      <c r="E115" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="22">
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115">
         <v>39</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" t="s">
         <v>80</v>
       </c>
-      <c r="H115" s="22">
-        <v>2</v>
-      </c>
-      <c r="I115" s="22" t="s">
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
         <v>118</v>
       </c>
-      <c r="J115" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K115" s="22"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="22">
+      <c r="J115" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" t="s">
         <v>222</v>
       </c>
-      <c r="C116" s="22">
+      <c r="C116">
         <v>162</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" t="s">
         <v>148</v>
       </c>
-      <c r="E116" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="22">
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116">
         <v>39</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" t="s">
         <v>82</v>
       </c>
-      <c r="H116" s="22">
-        <v>2</v>
-      </c>
-      <c r="I116" s="22" t="s">
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
         <v>120</v>
       </c>
-      <c r="J116" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K116" s="22"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="22">
+      <c r="J116" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" t="s">
         <v>223</v>
       </c>
-      <c r="C117" s="22">
+      <c r="C117">
         <v>163</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" s="22">
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117">
         <v>40</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G117" t="s">
         <v>84</v>
       </c>
-      <c r="H117" s="22">
-        <v>2</v>
-      </c>
-      <c r="I117" s="22" t="s">
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
         <v>122</v>
       </c>
-      <c r="J117" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K117" s="22"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="22">
+      <c r="J117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" t="s">
         <v>224</v>
       </c>
-      <c r="C118" s="22">
+      <c r="C118">
         <v>164</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="22">
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118">
         <v>40</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G118" t="s">
         <v>86</v>
       </c>
-      <c r="H118" s="22">
-        <v>2</v>
-      </c>
-      <c r="I118" s="22" t="s">
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
         <v>124</v>
       </c>
-      <c r="J118" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K118" s="22"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="22">
+      <c r="J118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" t="s">
         <v>225</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C119">
         <v>166</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" s="22">
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119">
         <v>40</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G119" t="s">
         <v>88</v>
       </c>
-      <c r="H119" s="22">
-        <v>2</v>
-      </c>
-      <c r="I119" s="22" t="s">
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
         <v>126</v>
       </c>
-      <c r="J119" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K119" s="22"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="22">
+      <c r="J119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C120">
         <v>168</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" t="s">
         <v>148</v>
       </c>
-      <c r="E120" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="22">
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120">
         <v>40</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" t="s">
         <v>90</v>
       </c>
-      <c r="H120" s="22">
-        <v>2</v>
-      </c>
-      <c r="I120" s="22" t="s">
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
         <v>128</v>
       </c>
-      <c r="J120" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K120" s="22"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="22">
+      <c r="J120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" t="s">
         <v>227</v>
       </c>
-      <c r="C121" s="22">
+      <c r="C121">
         <v>173</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" t="s">
         <v>148</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="22">
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121">
         <v>40</v>
       </c>
-      <c r="G121" s="22" t="s">
+      <c r="G121" t="s">
         <v>92</v>
       </c>
-      <c r="H121" s="22">
-        <v>2</v>
-      </c>
-      <c r="I121" s="22" t="s">
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
         <v>130</v>
       </c>
-      <c r="J121" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K121" s="22"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="22">
+      <c r="J121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" t="s">
         <v>228</v>
       </c>
-      <c r="C122" s="22">
+      <c r="C122">
         <v>176</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" t="s">
         <v>148</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="22">
+      <c r="E122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122">
         <v>40</v>
       </c>
-      <c r="G122" s="22" t="s">
+      <c r="G122" t="s">
         <v>94</v>
       </c>
-      <c r="H122" s="22">
-        <v>2</v>
-      </c>
-      <c r="I122" s="22" t="s">
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
         <v>132</v>
       </c>
-      <c r="J122" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K122" s="22"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="22">
+      <c r="J122" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="22">
+      <c r="C123">
         <v>178</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" t="s">
         <v>148</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="22">
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123">
         <v>40</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="G123" t="s">
         <v>96</v>
       </c>
-      <c r="H123" s="22">
-        <v>2</v>
-      </c>
-      <c r="I123" s="22" t="s">
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
         <v>134</v>
       </c>
-      <c r="J123" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K123" s="22"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="22">
         <v>123</v>
       </c>
@@ -6189,9 +6102,8 @@
       <c r="J124" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K124" s="22"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22">
         <v>124</v>
       </c>
@@ -6222,273 +6134,264 @@
       <c r="J125" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K125" s="22"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="22">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" t="s">
         <v>232</v>
       </c>
-      <c r="C126" s="22">
+      <c r="C126">
         <v>165</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" t="s">
         <v>148</v>
       </c>
-      <c r="E126" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="22">
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
         <v>40</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" t="s">
         <v>102</v>
       </c>
-      <c r="H126" s="22">
-        <v>2</v>
-      </c>
-      <c r="I126" s="22" t="s">
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
         <v>140</v>
       </c>
-      <c r="J126" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K126" s="22"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="22">
+      <c r="J126" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" t="s">
         <v>233</v>
       </c>
-      <c r="C127" s="22">
+      <c r="C127">
         <v>167</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" t="s">
         <v>148</v>
       </c>
-      <c r="E127" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="22">
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
         <v>40</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" t="s">
         <v>104</v>
       </c>
-      <c r="H127" s="22">
-        <v>2</v>
-      </c>
-      <c r="I127" s="22" t="s">
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
         <v>142</v>
       </c>
-      <c r="J127" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K127" s="22"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="22">
+      <c r="J127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" t="s">
         <v>234</v>
       </c>
-      <c r="C128" s="22">
+      <c r="C128">
         <v>170</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" t="s">
         <v>148</v>
       </c>
-      <c r="E128" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" s="22">
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
         <v>40</v>
       </c>
-      <c r="G128" s="22" t="s">
+      <c r="G128" t="s">
         <v>106</v>
       </c>
-      <c r="H128" s="22">
-        <v>2</v>
-      </c>
-      <c r="I128" s="22" t="s">
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
         <v>144</v>
       </c>
-      <c r="J128" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K128" s="22"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="22">
+      <c r="J128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" t="s">
         <v>235</v>
       </c>
-      <c r="C129" s="22">
+      <c r="C129">
         <v>171</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" t="s">
         <v>148</v>
       </c>
-      <c r="E129" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="22">
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
         <v>40</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" t="s">
         <v>108</v>
       </c>
-      <c r="H129" s="22">
-        <v>2</v>
-      </c>
-      <c r="I129" s="22" t="s">
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
         <v>146</v>
       </c>
-      <c r="J129" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K129" s="22"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="22">
+      <c r="J129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="22">
+      <c r="C130">
         <v>172</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" t="s">
         <v>148</v>
       </c>
-      <c r="E130" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="22">
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130">
         <v>40</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G130" t="s">
         <v>110</v>
       </c>
-      <c r="H130" s="22">
-        <v>2</v>
-      </c>
-      <c r="I130" s="22" t="s">
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130" t="s">
         <v>149</v>
       </c>
-      <c r="J130" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K130" s="22"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="22">
+      <c r="J130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" t="s">
         <v>237</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131">
         <v>174</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" t="s">
         <v>148</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" s="22">
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131">
         <v>40</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" t="s">
         <v>112</v>
       </c>
-      <c r="H131" s="22">
-        <v>2</v>
-      </c>
-      <c r="I131" s="22" t="s">
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131" t="s">
         <v>151</v>
       </c>
-      <c r="J131" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K131" s="22"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="22">
+      <c r="J131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" t="s">
         <v>238</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132">
         <v>175</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" t="s">
         <v>148</v>
       </c>
-      <c r="E132" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="22">
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132">
         <v>40</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" t="s">
         <v>114</v>
       </c>
-      <c r="H132" s="22">
-        <v>2</v>
-      </c>
-      <c r="I132" s="22" t="s">
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
         <v>153</v>
       </c>
-      <c r="J132" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K132" s="22"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="22">
+      <c r="J132" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" t="s">
         <v>239</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133">
         <v>177</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" t="s">
         <v>148</v>
       </c>
-      <c r="E133" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="22">
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133">
         <v>40</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" t="s">
         <v>116</v>
       </c>
-      <c r="H133" s="22">
-        <v>2</v>
-      </c>
-      <c r="I133" s="22" t="s">
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" t="s">
         <v>155</v>
       </c>
-      <c r="J133" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="K133" s="22"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="22">
         <v>133</v>
       </c>
@@ -6519,9 +6422,8 @@
       <c r="J134" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K134" s="22"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="22">
         <v>134</v>
       </c>
@@ -6552,9 +6454,8 @@
       <c r="J135" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K135" s="22"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="22">
         <v>135</v>
       </c>
@@ -6585,9 +6486,8 @@
       <c r="J136" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K136" s="22"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="22">
         <v>136</v>
       </c>
@@ -6618,9 +6518,8 @@
       <c r="J137" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K137" s="22"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="22">
         <v>137</v>
       </c>
@@ -6651,9 +6550,8 @@
       <c r="J138" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K138" s="22"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22">
         <v>138</v>
       </c>
@@ -6684,9 +6582,8 @@
       <c r="J139" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K139" s="22"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22">
         <v>139</v>
       </c>
@@ -6717,9 +6614,8 @@
       <c r="J140" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K140" s="22"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22">
         <v>140</v>
       </c>
@@ -6750,9 +6646,8 @@
       <c r="J141" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K141" s="22"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="22">
         <v>141</v>
       </c>
@@ -6783,9 +6678,8 @@
       <c r="J142" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K142" s="22"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="22">
         <v>142</v>
       </c>
@@ -6816,9 +6710,8 @@
       <c r="J143" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K143" s="22"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
         <v>143</v>
       </c>
@@ -6849,9 +6742,8 @@
       <c r="J144" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K144" s="22"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="22">
         <v>144</v>
       </c>
@@ -6882,9 +6774,8 @@
       <c r="J145" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K145" s="22"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="22">
         <v>145</v>
       </c>
@@ -6915,9 +6806,8 @@
       <c r="J146" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K146" s="22"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="22">
         <v>146</v>
       </c>
@@ -6948,9 +6838,8 @@
       <c r="J147" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K147" s="22"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="22">
         <v>147</v>
       </c>
@@ -6981,9 +6870,8 @@
       <c r="J148" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K148" s="22"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="22">
         <v>148</v>
       </c>
@@ -7014,9 +6902,8 @@
       <c r="J149" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K149" s="22"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="22">
         <v>149</v>
       </c>
@@ -7047,9 +6934,8 @@
       <c r="J150" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K150" s="22"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="22">
         <v>150</v>
       </c>
@@ -7080,9 +6966,8 @@
       <c r="J151" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K151" s="22"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="22">
         <v>151</v>
       </c>
@@ -7113,9 +6998,8 @@
       <c r="J152" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K152" s="22"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="22">
         <v>152</v>
       </c>
@@ -7146,9 +7030,8 @@
       <c r="J153" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K153" s="22"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="22">
         <v>153</v>
       </c>
@@ -7179,9 +7062,8 @@
       <c r="J154" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K154" s="22"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="22">
         <v>154</v>
       </c>
@@ -7212,9 +7094,8 @@
       <c r="J155" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K155" s="22"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="22">
         <v>155</v>
       </c>
@@ -7245,9 +7126,8 @@
       <c r="J156" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K156" s="22"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="22">
         <v>156</v>
       </c>
@@ -7278,9 +7158,8 @@
       <c r="J157" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K157" s="22"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="22">
         <v>157</v>
       </c>
@@ -7311,9 +7190,8 @@
       <c r="J158" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K158" s="22"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="22">
         <v>158</v>
       </c>
@@ -7344,9 +7222,8 @@
       <c r="J159" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K159" s="22"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="22">
         <v>159</v>
       </c>
@@ -7377,9 +7254,8 @@
       <c r="J160" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K160" s="22"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="22">
         <v>160</v>
       </c>
@@ -7410,9 +7286,8 @@
       <c r="J161" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K161" s="22"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="22">
         <v>161</v>
       </c>
@@ -7443,9 +7318,8 @@
       <c r="J162" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K162" s="22"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="22">
         <v>162</v>
       </c>
@@ -7476,9 +7350,8 @@
       <c r="J163" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K163" s="22"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="22">
         <v>163</v>
       </c>
@@ -7509,9 +7382,8 @@
       <c r="J164" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K164" s="22"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="22">
         <v>164</v>
       </c>
@@ -7542,9 +7414,8 @@
       <c r="J165" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K165" s="22"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="22">
         <v>165</v>
       </c>
@@ -7575,9 +7446,8 @@
       <c r="J166" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K166" s="22"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="22">
         <v>166</v>
       </c>
@@ -7608,9 +7478,8 @@
       <c r="J167" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K167" s="22"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="22">
         <v>167</v>
       </c>
@@ -7641,9 +7510,8 @@
       <c r="J168" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K168" s="22"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="22">
         <v>168</v>
       </c>
@@ -7674,9 +7542,8 @@
       <c r="J169" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K169" s="22"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="22">
         <v>169</v>
       </c>
@@ -7707,9 +7574,8 @@
       <c r="J170" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K170" s="22"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="22">
         <v>170</v>
       </c>
@@ -7740,9 +7606,8 @@
       <c r="J171" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K171" s="22"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="22">
         <v>171</v>
       </c>
@@ -7773,9 +7638,8 @@
       <c r="J172" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K172" s="22"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="22">
         <v>172</v>
       </c>
@@ -7806,9 +7670,8 @@
       <c r="J173" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K173" s="22"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="22">
         <v>173</v>
       </c>
@@ -7839,9 +7702,8 @@
       <c r="J174" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K174" s="22"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="22">
         <v>174</v>
       </c>
@@ -7872,9 +7734,8 @@
       <c r="J175" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K175" s="22"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="22">
         <v>175</v>
       </c>
@@ -7905,9 +7766,8 @@
       <c r="J176" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K176" s="22"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="22">
         <v>176</v>
       </c>
@@ -7938,9 +7798,8 @@
       <c r="J177" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K177" s="22"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="22">
         <v>177</v>
       </c>
@@ -7971,9 +7830,8 @@
       <c r="J178" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K178" s="22"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="22">
         <v>178</v>
       </c>
@@ -8004,9 +7862,8 @@
       <c r="J179" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K179" s="22"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="22">
         <v>179</v>
       </c>
@@ -8037,9 +7894,8 @@
       <c r="J180" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K180" s="22"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="22">
         <v>180</v>
       </c>
@@ -8070,9 +7926,8 @@
       <c r="J181" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K181" s="22"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="22">
         <v>181</v>
       </c>
@@ -8103,9 +7958,8 @@
       <c r="J182" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K182" s="22"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="22">
         <v>182</v>
       </c>
@@ -8136,9 +7990,8 @@
       <c r="J183" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K183" s="22"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="22">
         <v>183</v>
       </c>
@@ -8169,9 +8022,8 @@
       <c r="J184" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K184" s="22"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="22">
         <v>184</v>
       </c>
@@ -8202,9 +8054,8 @@
       <c r="J185" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K185" s="22"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="22">
         <v>185</v>
       </c>
@@ -8235,9 +8086,8 @@
       <c r="J186" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K186" s="22"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="22">
         <v>186</v>
       </c>
@@ -8268,9 +8118,8 @@
       <c r="J187" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K187" s="22"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="22">
         <v>187</v>
       </c>
@@ -8301,9 +8150,8 @@
       <c r="J188" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K188" s="22"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="22">
         <v>188</v>
       </c>
@@ -8334,9 +8182,8 @@
       <c r="J189" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K189" s="22"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="22">
         <v>189</v>
       </c>
@@ -8367,9 +8214,8 @@
       <c r="J190" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K190" s="22"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="22">
         <v>190</v>
       </c>
@@ -8400,9 +8246,8 @@
       <c r="J191" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K191" s="22"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="22">
         <v>191</v>
       </c>
@@ -8433,9 +8278,8 @@
       <c r="J192" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K192" s="22"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="22">
         <v>192</v>
       </c>
@@ -8466,9 +8310,8 @@
       <c r="J193" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K193" s="22"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="22">
         <v>193</v>
       </c>
@@ -8499,9 +8342,8 @@
       <c r="J194" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K194" s="22"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="22">
         <v>194</v>
       </c>
@@ -8532,9 +8374,8 @@
       <c r="J195" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K195" s="22"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="22">
         <v>195</v>
       </c>
@@ -8565,9 +8406,8 @@
       <c r="J196" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K196" s="22"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="22">
         <v>196</v>
       </c>
@@ -8598,9 +8438,8 @@
       <c r="J197" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K197" s="22"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="22">
         <v>197</v>
       </c>
@@ -8631,9 +8470,8 @@
       <c r="J198" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K198" s="22"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="22">
         <v>198</v>
       </c>
@@ -8664,7 +8502,6 @@
       <c r="J199" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="K199" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -8681,8 +8518,8 @@
   </sheetPr>
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8810,22 +8647,22 @@
       <c r="O2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="P2" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>2</v>
-      </c>
-      <c r="R2" s="15">
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>2</v>
+      </c>
+      <c r="R2" s="24">
         <v>3</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="24">
         <v>4</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="24">
         <v>5</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="24">
         <v>6</v>
       </c>
       <c r="V2" s="15">
@@ -8890,22 +8727,22 @@
       <c r="O3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="25">
         <v>13</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="26">
         <v>14</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="26">
         <v>15</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="26">
         <v>16</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="26">
         <v>17</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="26">
         <v>18</v>
       </c>
       <c r="V3" s="2">
@@ -8988,22 +8825,22 @@
       <c r="U4" s="2">
         <v>30</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="26">
         <v>31</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="26">
         <v>32</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="26">
         <v>33</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="26">
         <v>34</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="26">
         <v>35</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="27">
         <v>36</v>
       </c>
     </row>
@@ -9050,25 +8887,25 @@
       <c r="O5" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="25">
         <v>37</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="26">
         <v>38</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="26">
         <v>39</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="26">
         <v>40</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="26">
         <v>41</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="26">
         <v>42</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="26">
         <v>43</v>
       </c>
       <c r="W5" s="2">
@@ -9222,22 +9059,22 @@
       <c r="S7" s="2">
         <v>64</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="26">
         <v>65</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="26">
         <v>66</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="26">
         <v>67</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="26">
         <v>68</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="26">
         <v>69</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="26">
         <v>70</v>
       </c>
       <c r="Z7" s="2">
@@ -9305,25 +9142,25 @@
       <c r="T8" s="2">
         <v>77</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="26">
         <v>78</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="26">
         <v>79</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="26">
         <v>80</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="26">
         <v>81</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="26">
         <v>82</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="26">
         <v>83</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="27">
         <v>84</v>
       </c>
     </row>
@@ -9370,7 +9207,7 @@
       <c r="O9" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="28">
         <v>85</v>
       </c>
       <c r="Q9" s="3">
@@ -9530,40 +9367,40 @@
       <c r="O13" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="23">
         <v>97</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="24">
         <v>98</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="24">
         <v>99</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="24">
         <v>100</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="24">
         <v>101</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="24">
         <v>102</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="24">
         <v>103</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="24">
         <v>104</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="24">
         <v>105</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="24">
         <v>106</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="24">
         <v>107</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13" s="29">
         <v>108</v>
       </c>
     </row>
@@ -9610,7 +9447,7 @@
       <c r="O14" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="25">
         <v>109</v>
       </c>
       <c r="Q14" s="2">
@@ -9696,10 +9533,10 @@
       <c r="Q15" s="2">
         <v>122</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="26">
         <v>123</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="26">
         <v>124</v>
       </c>
       <c r="T15" s="2">
@@ -9770,40 +9607,40 @@
       <c r="O16" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="25">
         <v>133</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="26">
         <v>134</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="26">
         <v>135</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="26">
         <v>136</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="26">
         <v>137</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="26">
         <v>138</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="26">
         <v>139</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="26">
         <v>140</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="26">
         <v>141</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="26">
         <v>142</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="26">
         <v>143</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="27">
         <v>144</v>
       </c>
     </row>
@@ -9850,40 +9687,40 @@
       <c r="O17" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="25">
         <v>145</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="26">
         <v>146</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="26">
         <v>147</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="26">
         <v>148</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="26">
         <v>149</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="26">
         <v>150</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="26">
         <v>151</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="26">
         <v>152</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="26">
         <v>153</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="26">
         <v>154</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="26">
         <v>155</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="27">
         <v>156</v>
       </c>
     </row>
@@ -9930,40 +9767,40 @@
       <c r="O18" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="25">
         <v>157</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="26">
         <v>158</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="26">
         <v>159</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="26">
         <v>160</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="26">
         <v>161</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="26">
         <v>162</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="26">
         <v>163</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="26">
         <v>164</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="26">
         <v>165</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="26">
         <v>166</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="26">
         <v>167</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="27">
         <v>168</v>
       </c>
     </row>
@@ -10010,40 +9847,40 @@
       <c r="O19" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="25">
         <v>169</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="26">
         <v>170</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="26">
         <v>171</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="26">
         <v>172</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="26">
         <v>173</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="26">
         <v>174</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="26">
         <v>175</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="26">
         <v>176</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="26">
         <v>177</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="26">
         <v>178</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="26">
         <v>179</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="27">
         <v>180</v>
       </c>
     </row>
@@ -10090,40 +9927,40 @@
       <c r="O20" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="28">
         <v>181</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="30">
         <v>182</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="30">
         <v>183</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="30">
         <v>184</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="30">
         <v>185</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="30">
         <v>186</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="30">
         <v>187</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="30">
         <v>188</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="30">
         <v>189</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="30">
         <v>190</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="30">
         <v>191</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="31">
         <v>192</v>
       </c>
     </row>
@@ -10250,22 +10087,22 @@
       <c r="O24" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="23">
         <v>193</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="24">
         <v>194</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="24">
         <v>195</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S24" s="24">
         <v>196</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T24" s="24">
         <v>197</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="24">
         <v>198</v>
       </c>
       <c r="V24" s="15"/>
